--- a/tur_gdp-un-inf.xlsx
+++ b/tur_gdp-un-inf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozan\Dropbox\econometrics_II_BAU\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE0142B-01FC-4649-9A57-3A86EB09D0A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3694B0B2-685C-4A1E-9D57-F4B1DD78BB8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{72B28964-A694-4170-8E40-83FBFB0BC58D}"/>
   </bookViews>
@@ -35,31 +35,31 @@
     <t>year</t>
   </si>
   <si>
-    <t>CPI94</t>
-  </si>
-  <si>
     <t>inf</t>
-  </si>
-  <si>
-    <t>nGDP</t>
   </si>
   <si>
     <t>gdp_gr</t>
   </si>
   <si>
-    <t>diff_un</t>
-  </si>
-  <si>
     <t>un</t>
-  </si>
-  <si>
-    <t>diff_inf</t>
   </si>
   <si>
     <t>gdp_gr_1</t>
   </si>
   <si>
     <t>gdp_gr_2</t>
+  </si>
+  <si>
+    <t>d_un</t>
+  </si>
+  <si>
+    <t>d_inf</t>
+  </si>
+  <si>
+    <t>cpi94</t>
+  </si>
+  <si>
+    <t>ngdp</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,31 +425,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="F3">
-        <f>E3-E2</f>
+        <f t="shared" ref="F3:F38" si="0">E3-E2</f>
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="G3">
@@ -523,14 +523,14 @@
         <v>7.7</v>
       </c>
       <c r="F4">
-        <f>E4-E3</f>
+        <f t="shared" si="0"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="G4">
         <v>31.400000000000006</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H38" si="0">G4-G3</f>
+        <f t="shared" ref="H4:H38" si="1">G4-G3</f>
         <v>2.9999999999999929</v>
       </c>
       <c r="I4">
@@ -548,25 +548,25 @@
         <v>6.7119561757436941</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C38" si="1">B4</f>
+        <f t="shared" ref="C5:C38" si="2">B4</f>
         <v>4.9710055601092762</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D38" si="2">B3</f>
+        <f t="shared" ref="D5:D38" si="3">B3</f>
         <v>3.5633558288313765</v>
       </c>
       <c r="E5">
         <v>7.6</v>
       </c>
       <c r="F5">
-        <f>E5-E4</f>
+        <f t="shared" si="0"/>
         <v>-0.10000000000000053</v>
       </c>
       <c r="G5">
         <v>48.4</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.999999999999993</v>
       </c>
       <c r="I5">
@@ -584,25 +584,25 @@
         <v>4.2414533216863219</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7119561757436941</v>
       </c>
       <c r="D6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9710055601092762</v>
       </c>
       <c r="E6">
         <v>7.1</v>
       </c>
       <c r="F6">
-        <f>E6-E5</f>
+        <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
       <c r="G6">
         <v>45</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.3999999999999986</v>
       </c>
       <c r="I6">
@@ -620,25 +620,25 @@
         <v>7.0119748650428591</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2414533216863219</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.7119561757436941</v>
       </c>
       <c r="E7">
         <v>7.9</v>
       </c>
       <c r="F7">
-        <f>E7-E6</f>
+        <f t="shared" si="0"/>
         <v>0.80000000000000071</v>
       </c>
       <c r="G7">
         <v>34.600000000000009</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-10.399999999999991</v>
       </c>
       <c r="I7">
@@ -656,25 +656,25 @@
         <v>9.4857211169248075</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0119748650428591</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2414533216863219</v>
       </c>
       <c r="E8">
         <v>8.3000000000000007</v>
       </c>
       <c r="F8">
-        <f>E8-E7</f>
+        <f t="shared" si="0"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="G8">
         <v>38.9</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2999999999999901</v>
       </c>
       <c r="I8">
@@ -692,25 +692,25 @@
         <v>2.1203507481362323</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.4857211169248075</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0119748650428591</v>
       </c>
       <c r="E9">
         <v>8.4</v>
       </c>
       <c r="F9">
-        <f>E9-E8</f>
+        <f t="shared" si="0"/>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="G9">
         <v>73.7</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.800000000000004</v>
       </c>
       <c r="I9">
@@ -728,25 +728,25 @@
         <v>0.25164228888014861</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1203507481362323</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.4857211169248075</v>
       </c>
       <c r="E10">
         <v>8.6</v>
       </c>
       <c r="F10">
-        <f>E10-E9</f>
+        <f t="shared" si="0"/>
         <v>0.19999999999999929</v>
       </c>
       <c r="G10">
         <v>63.3</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-10.400000000000006</v>
       </c>
       <c r="I10">
@@ -764,25 +764,25 @@
         <v>9.2553064341511941</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25164228888014861</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1203507481362323</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
       <c r="F11">
-        <f>E11-E10</f>
+        <f t="shared" si="0"/>
         <v>-0.59999999999999964</v>
       </c>
       <c r="G11">
         <v>60.3</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="I11">
@@ -800,25 +800,25 @@
         <v>0.92651367590757161</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.2553064341511941</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25164228888014861</v>
       </c>
       <c r="E12">
         <v>8.1999999999999993</v>
       </c>
       <c r="F12">
-        <f>E12-E11</f>
+        <f t="shared" si="0"/>
         <v>0.19999999999999929</v>
       </c>
       <c r="G12">
         <v>65.900000000000006</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6000000000000085</v>
       </c>
       <c r="I12">
@@ -836,25 +836,25 @@
         <v>5.9842863600426881</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92651367590757161</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.2553064341511941</v>
       </c>
       <c r="E13">
         <v>8.5</v>
       </c>
       <c r="F13">
-        <f>E13-E12</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000071</v>
       </c>
       <c r="G13">
         <v>70.100000000000009</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2000000000000028</v>
       </c>
       <c r="I13">
@@ -872,25 +872,25 @@
         <v>8.0420191219234312</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9842863600426881</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92651367590757161</v>
       </c>
       <c r="E14">
         <v>8.9</v>
       </c>
       <c r="F14">
-        <f>E14-E13</f>
+        <f t="shared" si="0"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="G14">
         <v>66.100000000000009</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="I14">
@@ -908,25 +908,25 @@
         <v>-5.4556658240937281</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0420191219234312</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.9842863600426881</v>
       </c>
       <c r="E15">
         <v>8.6</v>
       </c>
       <c r="F15">
-        <f>E15-E14</f>
+        <f t="shared" si="0"/>
         <v>-0.30000000000000071</v>
       </c>
       <c r="G15">
         <v>106.30000000000001</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40.200000000000003</v>
       </c>
       <c r="I15">
@@ -944,25 +944,25 @@
         <v>7.1912237978240796</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.4556658240937281</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.0420191219234312</v>
       </c>
       <c r="E16">
         <v>7.6</v>
       </c>
       <c r="F16">
-        <f>E16-E15</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="G16">
         <v>88.041666666666657</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-18.258333333333354</v>
       </c>
       <c r="I16">
@@ -980,25 +980,25 @@
         <v>7.0053157063712348</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1912237978240796</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.4556658240937281</v>
       </c>
       <c r="E17">
         <v>6.6</v>
       </c>
       <c r="F17">
-        <f>E17-E16</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="G17">
         <v>80.350099711943287</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.6915669547233705</v>
       </c>
       <c r="I17">
@@ -1016,25 +1016,25 @@
         <v>7.5288011667251595</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0053157063712348</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.1912237978240796</v>
       </c>
       <c r="E18">
         <v>6.8</v>
       </c>
       <c r="F18">
-        <f>E18-E17</f>
+        <f t="shared" si="0"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="G18">
         <v>85.733241596225682</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.383141884282395</v>
       </c>
       <c r="I18">
@@ -1052,25 +1052,25 @@
         <v>3.0918661145792754</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5288011667251595</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0053157063712348</v>
       </c>
       <c r="E19">
         <v>6.9</v>
       </c>
       <c r="F19">
-        <f>E19-E18</f>
+        <f t="shared" si="0"/>
         <v>0.10000000000000053</v>
       </c>
       <c r="G19">
         <v>84.641335697086745</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.0919058991389363</v>
       </c>
       <c r="I19">
@@ -1088,25 +1088,25 @@
         <v>-3.3893048851153185</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0918661145792754</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5288011667251595</v>
       </c>
       <c r="E20">
         <v>7.7</v>
       </c>
       <c r="F20">
-        <f>E20-E19</f>
+        <f t="shared" si="0"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="G20">
         <v>64.867479202940629</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-19.773856494146116</v>
       </c>
       <c r="I20">
@@ -1124,25 +1124,25 @@
         <v>6.640061113197393</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.3893048851153185</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0918661145792754</v>
       </c>
       <c r="E21">
         <v>6.5</v>
       </c>
       <c r="F21">
-        <f>E21-E20</f>
+        <f t="shared" si="0"/>
         <v>-1.2000000000000002</v>
       </c>
       <c r="G21">
         <v>54.915382408928551</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.9520967940120784</v>
       </c>
       <c r="I21">
@@ -1160,25 +1160,25 @@
         <v>-5.9623107595501823</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.640061113197393</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.3893048851153185</v>
       </c>
       <c r="E22">
         <v>8.4</v>
       </c>
       <c r="F22">
-        <f>E22-E21</f>
+        <f t="shared" si="0"/>
         <v>1.9000000000000004</v>
       </c>
       <c r="G22">
         <v>54.400184036515498</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.51519837241305311</v>
       </c>
       <c r="I22">
@@ -1196,25 +1196,25 @@
         <v>6.4302786467090423</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.9623107595501823</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.640061113197393</v>
       </c>
       <c r="E23">
         <v>10.3</v>
       </c>
       <c r="F23">
-        <f>E23-E22</f>
+        <f t="shared" si="0"/>
         <v>1.9000000000000004</v>
       </c>
       <c r="G23">
         <v>44.964123547998504</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.4360604885169934</v>
       </c>
       <c r="I23">
@@ -1232,25 +1232,25 @@
         <v>5.6082550928338026</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4302786467090423</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.9623107595501823</v>
       </c>
       <c r="E24">
         <v>10.5</v>
       </c>
       <c r="F24">
-        <f>E24-E23</f>
+        <f t="shared" si="0"/>
         <v>0.19999999999999929</v>
       </c>
       <c r="G24">
         <v>25.296367879713145</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-19.667755668285359</v>
       </c>
       <c r="I24">
@@ -1268,25 +1268,25 @@
         <v>9.6443225890842079</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6082550928338026</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.4302786467090423</v>
       </c>
       <c r="E25">
         <v>10.8</v>
       </c>
       <c r="F25">
-        <f>E25-E24</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000071</v>
       </c>
       <c r="G25">
         <v>10.584236235391087</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-14.712131644322058</v>
       </c>
       <c r="I25">
@@ -1304,25 +1304,25 @@
         <v>9.0098533038166515</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6443225890842079</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6082550928338026</v>
       </c>
       <c r="E26">
         <v>9.5</v>
       </c>
       <c r="F26">
-        <f>E26-E25</f>
+        <f t="shared" si="0"/>
         <v>-1.3000000000000007</v>
       </c>
       <c r="G26">
         <v>10.138404923958699</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.44583131143238752</v>
       </c>
       <c r="I26">
@@ -1340,25 +1340,25 @@
         <v>7.1097034284914873</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0098533038166515</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6443225890842079</v>
       </c>
       <c r="E27">
         <v>9</v>
       </c>
       <c r="F27">
-        <f>E27-E26</f>
+        <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
       <c r="G27">
         <v>10.510976674689498</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37257175073079907</v>
       </c>
       <c r="I27">
@@ -1376,25 +1376,25 @@
         <v>5.0304575876985336</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1097034284914873</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.0098533038166515</v>
       </c>
       <c r="E28">
         <v>9.1999999999999993</v>
       </c>
       <c r="F28">
-        <f>E28-E27</f>
+        <f t="shared" si="0"/>
         <v>0.19999999999999929</v>
       </c>
       <c r="G28">
         <v>8.7561720494935038</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.7548046251959946</v>
       </c>
       <c r="I28">
@@ -1412,25 +1412,25 @@
         <v>0.84525145585185868</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0304575876985336</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.1097034284914873</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
       <c r="F29">
-        <f>E29-E28</f>
+        <f t="shared" si="0"/>
         <v>0.80000000000000071</v>
       </c>
       <c r="G29">
         <v>10.441718792583131</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6855467430896276</v>
       </c>
       <c r="I29">
@@ -1448,25 +1448,25 @@
         <v>-4.7044659142046914</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.84525145585185868</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.0304575876985336</v>
       </c>
       <c r="E30">
         <v>13.1</v>
       </c>
       <c r="F30">
-        <f>E30-E29</f>
+        <f t="shared" si="0"/>
         <v>3.0999999999999996</v>
       </c>
       <c r="G30">
         <v>6.2533084827285146</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.1884103098546168</v>
       </c>
       <c r="I30">
@@ -1484,25 +1484,25 @@
         <v>8.4873721400000157</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.7044659142046914</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84525145585185868</v>
       </c>
       <c r="E31">
         <v>11.1</v>
       </c>
       <c r="F31">
-        <f>E31-E30</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="G31">
         <v>8.5664313164329986</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.313122833704484</v>
       </c>
       <c r="I31">
@@ -1520,25 +1520,25 @@
         <v>11.113495572960419</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4873721400000157</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.7044659142046914</v>
       </c>
       <c r="E32">
         <v>9.1</v>
       </c>
       <c r="F32">
-        <f>E32-E31</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="G32">
         <v>6.4718896109343671</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.0945417054986315</v>
       </c>
       <c r="I32">
@@ -1556,25 +1556,25 @@
         <v>4.7899402808025071</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.113495572960419</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.4873721400000157</v>
       </c>
       <c r="E33">
         <v>8.4</v>
       </c>
       <c r="F33">
-        <f>E33-E32</f>
+        <f t="shared" si="0"/>
         <v>-0.69999999999999929</v>
       </c>
       <c r="G33">
         <v>8.8915693145515284</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4196797036171613</v>
       </c>
       <c r="I33">
@@ -1592,25 +1592,25 @@
         <v>8.4913092953881488</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7899402808025071</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.113495572960419</v>
       </c>
       <c r="E34">
         <v>9</v>
       </c>
       <c r="F34">
-        <f>E34-E33</f>
+        <f t="shared" si="0"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="G34">
         <v>7.4930871712722169</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3984821432793115</v>
       </c>
       <c r="I34">
@@ -1628,25 +1628,25 @@
         <v>5.1666907197888357</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4913092953881488</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7899402808025071</v>
       </c>
       <c r="E35">
         <v>9.9</v>
       </c>
       <c r="F35">
-        <f>E35-E34</f>
+        <f t="shared" si="0"/>
         <v>0.90000000000000036</v>
       </c>
       <c r="G35">
         <v>8.8545747927689877</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3614876214967708</v>
       </c>
       <c r="I35">
@@ -1664,25 +1664,25 @@
         <v>6.0858866185163896</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1666907197888357</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.4913092953881488</v>
       </c>
       <c r="E36">
         <v>10.3</v>
       </c>
       <c r="F36">
-        <f>E36-E35</f>
+        <f t="shared" si="0"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="G36">
         <v>7.6708500556997183</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.1837247370692694</v>
       </c>
       <c r="I36">
@@ -1700,25 +1700,25 @@
         <v>3.1838315464841394</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0858866185163896</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1666907197888357</v>
       </c>
       <c r="E37">
         <v>10.9</v>
       </c>
       <c r="F37">
-        <f>E37-E36</f>
+        <f t="shared" si="0"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="G37">
         <v>7.7751354879919354</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1042854322922171</v>
       </c>
       <c r="I37">
@@ -1736,25 +1736,25 @@
         <v>7.4411932597701069</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1838315464841394</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0858866185163896</v>
       </c>
       <c r="E38">
         <v>10.9</v>
       </c>
       <c r="F38">
-        <f>E38-E37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G38">
         <v>11.14431304152661</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3691775535346746</v>
       </c>
       <c r="I38">
